--- a/curso_21_22.xlsx
+++ b/curso_21_22.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Curso</t>
   </si>
@@ -426,18 +426,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="585" topLeftCell="A13" activePane="bottomLeft"/>
+      <pane ySplit="585" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1:H1048576"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -480,23 +480,23 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C34" si="0">SUM(E2:H2)</f>
+        <f t="shared" ref="C2:C18" si="0">SUM(E2:H2)</f>
         <v>24</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
         <v>4</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>12</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -520,16 +520,16 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -559,10 +559,10 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -586,16 +586,16 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -619,16 +619,16 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -652,16 +652,16 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -685,16 +685,16 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -718,16 +718,16 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -751,16 +751,16 @@
         <v>1</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
         <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -784,16 +784,16 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -811,19 +811,19 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -913,16 +913,16 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -937,19 +937,19 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -973,16 +973,16 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -997,16 +997,16 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
         <v>6</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1018,622 +1018,6 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <f>E2+1</f>
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <f>F2-1</f>
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <f>G2+1</f>
-        <v>5</v>
-      </c>
-      <c r="H19">
-        <f>H2-1</f>
-        <v>11</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ref="E20:E35" si="1">E3+1</f>
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ref="F20:F35" si="2">F3-1</f>
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ref="G20:G35" si="3">G3+1</f>
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ref="H20:H34" si="4">H3-1</f>
-        <v>13</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="I22">
-        <v>4</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F27">
-        <f>F10</f>
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-      <c r="J29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="I30">
-        <v>4</v>
-      </c>
-      <c r="J30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F33">
-        <f>F16</f>
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H33">
-        <f>H16</f>
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35">
-        <f>SUM(E35:H35)</f>
-        <v>9</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>6</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <f>H18</f>
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
         <v>1</v>
       </c>
     </row>
